--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="142">
   <si>
     <t>TCID</t>
   </si>
@@ -45,33 +45,30 @@
     <t>TC001</t>
   </si>
   <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
     <t>ApplicationLogin</t>
   </si>
   <si>
+    <t>StocckItems</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Cusstomers</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>StocckItems</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>Cusstomers</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -174,10 +171,289 @@
     <t>closeBrowser</t>
   </si>
   <si>
+    <t>Wait for stock item link</t>
+  </si>
+  <si>
+    <t>Click Stock items link</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Wait for Add Icon</t>
+  </si>
+  <si>
+    <t>Click Add icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Wait for Category Listbox</t>
+  </si>
+  <si>
+    <t>Select item in Category</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>Seelct item in Supplier Number</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture Stock number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stcok name</t>
+  </si>
+  <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Purchasing Price </t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzles</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify Stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>Click Confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supplier number</t>
+  </si>
+  <si>
+    <t>capturesup</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>Akhilesh</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameerpet,201,flat,beside satyam </t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>6547896547</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter Mobile number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>6214789545</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Iam Supplying lg goods</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>Verify Supplier number</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Wait for Customer number</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>capture Customer number</t>
+  </si>
+  <si>
+    <t>capturecus</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>Ranguandsita</t>
+  </si>
+  <si>
+    <t>madanapalli</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Qedgetech</t>
+  </si>
+  <si>
+    <t>3214569832</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>65547789541</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Iam Customer</t>
+  </si>
+  <si>
+    <t>Verify Customer number</t>
+  </si>
+  <si>
+    <t>customertable</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -185,9 +461,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="208" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -202,165 +502,1223 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -402,16 +1760,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -434,8 +1804,189 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,16 +2267,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0"/>
-    <col min="2" max="2" customWidth="true" width="27.0"/>
-    <col min="3" max="3" customWidth="true" width="36.0"/>
-    <col min="4" max="4" customWidth="true" width="22.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -747,59 +2297,60 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="24">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="36">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="25">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="94">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="26">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="156">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="27">
-        <v>49</v>
+      <c r="D5" t="s" s="218">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -807,277 +2358,2195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" activeCellId="1" sqref="A2 H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.6640625"/>
-    <col min="2" max="2" customWidth="true" width="33.0"/>
-    <col min="3" max="3" customWidth="true" width="18.0"/>
-    <col min="4" max="4" customWidth="true" width="38.77734375"/>
-    <col min="5" max="5" customWidth="true" width="37.5546875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F4" t="s" s="21">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" t="s" s="23">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" t="s" s="25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="27">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s" s="15">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F8" t="s" s="29">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" t="s" s="31">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="19">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="33">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s" s="21">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s" s="23">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="35">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.21875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="37">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="39">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="41">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="43">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="47">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="49">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="51">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="53">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="55">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="57">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="59">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="61">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="63">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="65">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s" s="67">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s" s="69">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="71">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F20" t="s" s="73">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F21" t="s" s="75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s" s="77">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s" s="79">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="81">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="83">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="85">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="87">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s" s="89">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s" s="91">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s" s="93">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.6640625"/>
+    <col min="2" max="2" customWidth="true" width="22.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="4" max="4" customWidth="true" width="37.0"/>
+    <col min="5" max="5" customWidth="true" width="38.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="95">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="97">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="99">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="101">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="103">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="105">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="107">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="109">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="111">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="113">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="115">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="117">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="119">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s" s="121">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s" s="123">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s" s="125">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s" s="127">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s" s="129">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s" s="131">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s" s="133">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s" s="135">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s" s="137">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s" s="139">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="145">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="8">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="147">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s" s="149">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s" s="151">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s" s="153">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s" s="155">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="28.5546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625"/>
+    <col min="3" max="3" customWidth="true" width="15.21875"/>
+    <col min="4" max="4" customWidth="true" width="46.21875"/>
+    <col min="5" max="5" customWidth="true" width="29.109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="157">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="159">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="161">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="163">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="165">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="167">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="169">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="171">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="173">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="175">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="177">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="179">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="181">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s" s="183">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s" s="185">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s" s="187">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" t="s" s="189">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s" s="191">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s" s="193">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s" s="195">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s" s="197">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s" s="199">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s" s="201">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="203">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="13">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="205">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="207">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="13">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="209">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s" s="211">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s" s="213">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s" s="215">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s" s="217">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>